--- a/data/evaluation/evaluation_North_Spring_Eggplants.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Eggplants.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3277.699011532366</v>
+        <v>3290.393854104899</v>
       </c>
       <c r="C4" t="n">
-        <v>16204850.44766712</v>
+        <v>16389101.49240824</v>
       </c>
       <c r="D4" t="n">
-        <v>4025.52486610965</v>
+        <v>4048.345525323677</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1199216235931679</v>
+        <v>0.1099150295285882</v>
       </c>
     </row>
     <row r="5">
